--- a/leaders.xlsx
+++ b/leaders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dav_r\PycharmProjects\Teams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dav_r\Documents\Orientation-Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BC4CF4-6526-458F-B1BE-FF1D53A17CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E9F770-6F94-4458-A8E0-5BB7E5C6BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="760" windowWidth="9000" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaders" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -71,16 +71,54 @@
   </si>
   <si>
     <t>team 2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>davrene11@gmail.com</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>email2</t>
+  </si>
+  <si>
+    <t>email3</t>
+  </si>
+  <si>
+    <t>email4</t>
+  </si>
+  <si>
+    <t>email5</t>
+  </si>
+  <si>
+    <t>email6</t>
+  </si>
+  <si>
+    <t>email7</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,13 +141,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,9 +440,10 @@
     <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,54 +453,126 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BF80E0A-C9AC-4A47-A7E1-566A02FBADDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/leaders.xlsx
+++ b/leaders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dav_r\Documents\Orientation-Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E9F770-6F94-4458-A8E0-5BB7E5C6BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C0ADB-5106-4669-9F1F-8FB0C6CD17B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="411">
   <si>
     <t>Name</t>
   </si>
@@ -43,27 +43,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>Mikolas</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Test6</t>
-  </si>
-  <si>
     <t>Team Name</t>
   </si>
   <si>
@@ -76,38 +55,1217 @@
     <t>email</t>
   </si>
   <si>
-    <t>davrene11@gmail.com</t>
-  </si>
-  <si>
-    <t>email1</t>
-  </si>
-  <si>
-    <t>email2</t>
-  </si>
-  <si>
-    <t>email3</t>
-  </si>
-  <si>
-    <t>email4</t>
-  </si>
-  <si>
-    <t>email5</t>
-  </si>
-  <si>
-    <t>email6</t>
-  </si>
-  <si>
-    <t>email7</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Hayley</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Vivienne</t>
+  </si>
+  <si>
+    <t>Shrey</t>
+  </si>
+  <si>
+    <t>Kimia</t>
+  </si>
+  <si>
+    <t>Joleen</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Monique</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Susy</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Nura</t>
+  </si>
+  <si>
+    <t>Malak</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Jerika</t>
+  </si>
+  <si>
+    <t>Viviane</t>
+  </si>
+  <si>
+    <t>Daniya</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Sanghy</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Meagan</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Srinija</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Afrah</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Jessy</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Abida</t>
+  </si>
+  <si>
+    <t>Shriya</t>
+  </si>
+  <si>
+    <t>Ladees</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Anithra</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Shaelie</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Janie</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Maria Paz</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>Duaa</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>Bader</t>
+  </si>
+  <si>
+    <t>Kayley</t>
+  </si>
+  <si>
+    <t>Paul Chen</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Kyla</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Ariadne</t>
+  </si>
+  <si>
+    <t>Vishwa</t>
+  </si>
+  <si>
+    <t>Lilia</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Saira</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Stephen Tan</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>Verina</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Savera</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Joscelyn</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Jimin</t>
+  </si>
+  <si>
+    <t>Manaswi</t>
+  </si>
+  <si>
+    <t>Suji</t>
+  </si>
+  <si>
+    <t>Agam</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Vitasta</t>
+  </si>
+  <si>
+    <t>Zahra</t>
+  </si>
+  <si>
+    <t>Gwyneth Nicole</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Araya</t>
+  </si>
+  <si>
+    <t>Edric</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Laila</t>
+  </si>
+  <si>
+    <t>Aseid</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Millun</t>
+  </si>
+  <si>
+    <t>Ivneet</t>
+  </si>
+  <si>
+    <t>Anique</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Qamar</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Hayya</t>
+  </si>
+  <si>
+    <t>Lilyana</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Shireen</t>
+  </si>
+  <si>
+    <t>Genevieve</t>
+  </si>
+  <si>
+    <t>Maryanne</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Andrea Carolina</t>
+  </si>
+  <si>
+    <t>Saihej</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>Neeha</t>
+  </si>
+  <si>
+    <t>Rend</t>
+  </si>
+  <si>
+    <t>SooMin</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Ruhiya</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Gurleen</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Dipannita</t>
+  </si>
+  <si>
+    <t>Rhea</t>
+  </si>
+  <si>
+    <t>Yashica</t>
+  </si>
+  <si>
+    <t>Abdulahi</t>
+  </si>
+  <si>
+    <t>Harleen</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Reis</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>Noor</t>
+  </si>
+  <si>
+    <t>Madhav</t>
+  </si>
+  <si>
+    <t>Haidar</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>Prarthana</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Yasaman</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Mudiyanselage</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Yashar</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Lyana</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Ruchika</t>
+  </si>
+  <si>
+    <t>Ijeoma</t>
+  </si>
+  <si>
+    <t>Winnie</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Fenny</t>
+  </si>
+  <si>
+    <t>d2rene@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>hltcanning@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>nwtseng@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vestern@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sj2patel@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>k3shaban@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>joleen.andres@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ecchang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>me2mery@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>JCSURDI@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sochoagarrido@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j32ha@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mmqhu@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>samantha.andrea.lange@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>nsalooje@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>malrubai@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>bcobiha@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jwpchuong@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vtranvie@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>DMOHSIN@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ktschirh@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>bemmanue@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>emljutla@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>b9wagner@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>MCWICKS@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>akereliu@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s3ramani@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>rsomera@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a4seshad@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m48taylo@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>aruetz@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>dzonis@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>srinija.palaparty@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j38dang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a32ansar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>bktwuman@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jriad@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>n32wu@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a8haroon@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>shriya.parikh@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>laalhafi@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kschneid@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>dddudziak@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>arselvakumar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s2saadatikhanshir@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>smendes@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>glaevens@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jdc2ong@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kyayad@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mpbecerra@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>scachia@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j4staple@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mohammed.ayman.abdulrahman@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>dp2patel@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>P5WRIGHT@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vrtang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lawilkin@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vgarzonl@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>esyswils@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>atastasa@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>elouis@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>d3osman@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kthcargill@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>alisogur@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>bisteita@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>klammel@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>p226chen@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>moheckma@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sa2steve@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s5hardy@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kreinsoo@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>anpujols@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jblander@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>d9rana@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>c59ng@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>apiperak@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>v85patel@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lsafiull@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jdanieli@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s2babool@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ctadrous@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>am2fernandezgalliano@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>cghatab@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>skramer@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mdayoub@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ehleonar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jtdayman@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ltarazon@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s62tan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m4gobran@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j7fletch@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vsmsalib@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s57tan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>afamazan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s2lodhy@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>r36thoma@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>JRSANGST@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>J37VANDE@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>emtmcgil@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a27imran@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>n24chang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j765lee@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>EMSOLOMO@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m65sharma@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sholdenr@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s4udayak@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ak2bhullar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>CGBRUKNE@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>v2dhar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>zs2hasan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>gngonzal@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>v49lee@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jyfu@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ejlaraya@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>easudiho@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a75rahma@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mlockley@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>amumapalan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lderizk@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a3yaseen@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lmfoster@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>y27gan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m32grewal@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ikgill@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a447sing@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>tnararidh@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>oszczepa@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>qmobayed@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>afogal@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>hhalime@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lsurubar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>omoluchi@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>emelek@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>cdzhong@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>absampath@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>J49HUYNH@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sscyclew@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ghbelford@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mputros@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>vsobczak@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sarourke@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>acvilcac@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s73gill@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>swborho@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kvpoganatz@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>kmessak@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>msoryal@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>nbaral@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ralbayati@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>s297park@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>tlvirgin@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>x345yang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>smaerten@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>rabduraf@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mgowlett@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ekurtz@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>gkbhaura@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>p2arya@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a34sandh@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>DSAHA@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>aahuleat@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m2scarfo@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ac2freem@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>r7bhardw@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>ysheth@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>a293mohamed@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>h38gill@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>v2bang@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>raimrie@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>wyounghong@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>t22duong@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>nhasiba@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>m84sharm@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>hmashlab@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>skyan@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j234jian@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>psembaku@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>KDYOUNG@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>yeskandari@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>cvsingh@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jhoxha@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>MSRAJAPA@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>bckiradz@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>yalizadehebadi@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>c73kim@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>mjcordell@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>lrrahim@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j296hu@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>t4jing@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>j2beacom@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>r43kumar@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>iihedimb@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>jjturnbull@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>winnie.ry.ho@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>sm29pate@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>fcpatel@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>melsoukk@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>team 3</t>
+  </si>
+  <si>
+    <t>team 4</t>
+  </si>
+  <si>
+    <t>team 5</t>
+  </si>
+  <si>
+    <t>team 6</t>
+  </si>
+  <si>
+    <t>team 7</t>
+  </si>
+  <si>
+    <t>team 8</t>
+  </si>
+  <si>
+    <t>team 9</t>
+  </si>
+  <si>
+    <t>team 10</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>FuPo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,9 +1274,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +1295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,18 +1303,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{73F53B63-2DFC-4713-BC44-29BC4C607F34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,10 +1631,11 @@
     <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="35.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,135 +1646,2540 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="D18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="D20" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="D21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="D22" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="D23" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="D24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="D25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="D27" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="D29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="D30" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="D31" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="D32" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="D33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="D36" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="D37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="D40" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="D41" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="D43" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="D47" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="D48" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="D49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="D50" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="D51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="D52" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="D53" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="D54" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="D59" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="D60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="D62" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="D63" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="D65" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="D67" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="D68" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="D71" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="D72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="D73" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B74" s="5"/>
+      <c r="D74" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B75" s="5"/>
+      <c r="D75" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="D76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="D77" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="D79" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="D80" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="D81" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="D82" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="D85" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="D86" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="D87" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="D89" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="D90" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="D91" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="D92" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="D94" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="D96" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="D97" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="D98" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="D99" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="D101" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="D104" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="D105" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="D106" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="D107" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="D108" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="D109" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="D110" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="D112" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="D114" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="D115" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="D116" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="D117" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="D118" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="D120" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="D121" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="D122" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="D123" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="D124" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="D127" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="D128" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="D129" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="D130" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="D131" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="D132" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="D133" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="D134" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="D135" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="D139" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="D141" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="D143" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="D146" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="D147" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="D148" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="D149" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="D151" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="D153" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="D154" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="D156" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="D157" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="D158" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="D160" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="D161" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="D162" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="D163" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="D164" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="D165" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="D166" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="D167" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="D169" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="D170" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="D172" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="D173" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="D174" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="D175" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="D176" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="D177" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="D178" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="D180" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="D182" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="D183" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="D184" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="D185" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="D189" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="D190" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="D191" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="D192" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="D193" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="D198" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="1"/>
+      <c r="B200" s="3"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="D201" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BF80E0A-C9AC-4A47-A7E1-566A02FBADDD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D63C0-E7C5-493E-9489-71E768344C6F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,22 +4187,96 @@
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>